--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -1124,7 +1124,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1143,7 +1143,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1232,7 +1232,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.method.coding.id</t>
@@ -1368,7 +1368,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -1807,7 +1807,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.4765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="521">
   <si>
     <t>Property</t>
   </si>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>
@@ -530,23 +530,269 @@
 </t>
   </si>
   <si>
-    <t>External identifier 外部識別子</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.
-ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバからサーバに伝播される間、一定のままである。</t>
+    <t>外部から参照されるID</t>
+  </si>
+  <si>
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+  </si>
+  <si>
+    <t>これは業務IDであって、リソースに対するIDではない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>rpNumber</t>
+  </si>
+  <si>
+    <t>処方箋内部の剤グループとしてのRp番号</t>
+  </si>
+  <si>
+    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
+  </si>
+  <si>
+    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.system</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.value</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダに対するID(MedicationRequestからの継承)</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。原則として投薬実施の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationAdministration.instantiates</t>
@@ -599,9 +845,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>患者への投与状況</t>
   </si>
   <si>
@@ -621,10 +864,6 @@
   </si>
   <si>
     <t>MedicationAdministration.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Reason administration not performed　実施されていない理由</t>
@@ -852,32 +1091,7 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationAdministration.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1182,9 +1396,6 @@
     <t>MedicationAdministration.dosage.method.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>MedicationAdministration.dosage.method.coding</t>
   </si>
   <si>
@@ -1202,10 +1413,6 @@
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1774,7 +1981,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AN85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1806,7 +2013,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3433,7 +3640,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>79</v>
@@ -3495,16 +3702,14 @@
         <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>162</v>
@@ -3522,13 +3727,13 @@
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3539,18 +3744,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -3559,18 +3766,20 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3619,7 +3828,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3634,13 +3843,13 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3662,7 +3871,7 @@
         <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
@@ -3671,7 +3880,7 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>176</v>
@@ -3731,22 +3940,22 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>180</v>
@@ -3767,26 +3976,26 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>182</v>
@@ -3795,7 +4004,7 @@
         <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3821,55 +4030,55 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AF18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3877,7 +4086,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3888,30 +4097,32 @@
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3935,13 +4146,13 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>77</v>
@@ -3959,13 +4170,13 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
@@ -3974,16 +4185,16 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3991,7 +4202,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4011,19 +4222,23 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4047,13 +4262,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4071,7 +4286,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4089,13 +4304,13 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4103,7 +4318,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4126,30 +4341,32 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>77</v>
@@ -4161,34 +4378,34 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AF21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -4200,16 +4417,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4217,7 +4434,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4240,16 +4457,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4263,7 +4480,7 @@
         <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>77</v>
@@ -4299,10 +4516,10 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4314,16 +4531,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4331,7 +4548,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4351,20 +4568,18 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4428,16 +4643,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4445,7 +4660,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4456,7 +4671,7 @@
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4465,19 +4680,19 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4533,7 +4748,7 @@
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
@@ -4545,13 +4760,13 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4559,18 +4774,20 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4579,19 +4796,19 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4641,13 +4858,13 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
@@ -4656,16 +4873,16 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4673,7 +4890,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4684,7 +4901,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4693,16 +4910,16 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4753,31 +4970,31 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4785,18 +5002,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4808,15 +5025,17 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4853,37 +5072,37 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4897,41 +5116,43 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4955,13 +5176,13 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -4979,31 +5200,31 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5011,42 +5232,42 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5071,13 +5292,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5095,31 +5316,31 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5127,7 +5348,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5135,7 +5356,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
@@ -5147,31 +5368,35 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>77</v>
@@ -5183,13 +5408,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5207,7 +5432,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5222,16 +5447,16 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5239,7 +5464,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5262,15 +5487,17 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>282</v>
+        <v>176</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5283,7 +5510,7 @@
         <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>77</v>
@@ -5319,10 +5546,10 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -5334,16 +5561,16 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5351,7 +5578,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5362,7 +5589,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5371,16 +5598,16 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>228</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5407,13 +5634,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5431,13 +5658,13 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -5446,16 +5673,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5463,7 +5690,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5474,7 +5701,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5483,19 +5710,19 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5545,13 +5772,13 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
@@ -5560,24 +5787,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5588,7 +5815,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5597,23 +5824,19 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>305</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5661,13 +5884,13 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -5676,16 +5899,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5693,7 +5916,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5713,20 +5936,18 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5775,7 +5996,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5790,16 +6011,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5807,7 +6028,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5815,31 +6036,31 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5865,13 +6086,13 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
@@ -5889,13 +6110,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -5904,16 +6125,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5921,7 +6142,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5932,7 +6153,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -5944,15 +6165,17 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -5977,13 +6200,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -6001,31 +6224,31 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>329</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6033,7 +6256,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6056,13 +6279,13 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6089,13 +6312,13 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6113,7 +6336,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6125,13 +6348,13 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6145,18 +6368,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -6165,19 +6388,19 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6203,13 +6426,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6227,31 +6450,31 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6259,43 +6482,41 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6343,31 +6564,31 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6375,7 +6596,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6398,15 +6619,17 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6455,7 +6678,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6470,16 +6693,16 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6487,7 +6710,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6498,7 +6721,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
@@ -6510,16 +6733,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>193</v>
+        <v>316</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6545,11 +6768,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6567,13 +6792,13 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
@@ -6585,13 +6810,13 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6599,7 +6824,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6607,7 +6832,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
@@ -6619,19 +6844,19 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>193</v>
+        <v>321</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6657,11 +6882,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6679,10 +6906,10 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6694,16 +6921,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6711,7 +6938,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6722,7 +6949,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6731,23 +6958,19 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>193</v>
+        <v>330</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6771,13 +6994,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6795,13 +7018,13 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
@@ -6810,16 +7033,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6827,7 +7050,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6850,13 +7073,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>262</v>
+        <v>178</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6907,7 +7130,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6925,7 +7148,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6939,7 +7162,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6965,10 +7188,10 @@
         <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>159</v>
@@ -7009,19 +7232,19 @@
         <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7039,7 +7262,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7053,11 +7276,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7070,25 +7293,25 @@
         <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>363</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
+        <v>159</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>367</v>
+        <v>160</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7125,17 +7348,19 @@
         <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AB47" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7147,19 +7372,19 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>370</v>
+        <v>129</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7167,11 +7392,9 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7189,23 +7412,19 @@
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>363</v>
+        <v>197</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7229,11 +7448,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7251,13 +7472,13 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
@@ -7266,16 +7487,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7283,7 +7504,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7291,7 +7512,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>86</v>
@@ -7303,16 +7524,16 @@
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>260</v>
+        <v>352</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>261</v>
+        <v>353</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7363,10 +7584,10 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>263</v>
+        <v>351</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>86</v>
@@ -7375,13 +7596,13 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>264</v>
+        <v>356</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7395,11 +7616,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7418,17 +7639,15 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7453,31 +7672,31 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>268</v>
+        <v>357</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7489,19 +7708,19 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7509,7 +7728,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7517,10 +7736,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7529,29 +7748,27 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>100</v>
+        <v>366</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>77</v>
@@ -7593,13 +7810,13 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
@@ -7608,24 +7825,24 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7645,21 +7862,23 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7707,7 +7926,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7722,16 +7941,16 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7739,7 +7958,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7750,7 +7969,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -7759,21 +7978,21 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>106</v>
+        <v>384</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7821,13 +8040,13 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
@@ -7839,13 +8058,13 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7853,7 +8072,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7864,7 +8083,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -7873,21 +8092,21 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7935,13 +8154,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -7950,16 +8169,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -7967,7 +8186,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7987,23 +8206,19 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>411</v>
+        <v>330</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8051,7 +8266,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8063,19 +8278,19 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>399</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8083,11 +8298,9 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8105,23 +8318,19 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>363</v>
+        <v>176</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>177</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8145,11 +8354,13 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8167,31 +8378,31 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>369</v>
+        <v>179</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8199,18 +8410,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8222,15 +8433,17 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8279,25 +8492,25 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8311,11 +8524,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>156</v>
+        <v>340</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8328,24 +8541,26 @@
         <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>266</v>
+        <v>341</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8381,19 +8596,19 @@
         <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8411,7 +8626,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8425,7 +8640,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8433,7 +8648,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>86</v>
@@ -8445,29 +8660,25 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>77</v>
@@ -8509,7 +8720,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8527,13 +8738,13 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8541,7 +8752,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8561,19 +8772,19 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8599,13 +8810,11 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8623,7 +8832,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8641,13 +8850,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8655,7 +8864,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8675,21 +8884,21 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8713,13 +8922,11 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8737,7 +8944,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8755,13 +8962,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8769,7 +8976,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8789,20 +8996,22 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -8827,13 +9036,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -8851,7 +9060,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8869,13 +9078,13 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8883,7 +9092,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8903,23 +9112,19 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>411</v>
+        <v>176</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>412</v>
+        <v>177</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -8967,7 +9172,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>416</v>
+        <v>179</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -8979,19 +9184,19 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>417</v>
+        <v>180</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -8999,18 +9204,18 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9019,23 +9224,21 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>425</v>
+        <v>182</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>426</v>
+        <v>183</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9071,43 +9274,43 @@
         <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>429</v>
+        <v>185</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>431</v>
+        <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9115,7 +9318,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9126,7 +9329,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9135,21 +9338,23 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9185,31 +9390,29 @@
         <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AB65" s="2"/>
       <c r="AC65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>437</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
@@ -9229,9 +9432,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9249,21 +9454,23 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9287,13 +9494,11 @@
         <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
@@ -9311,13 +9516,13 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
@@ -9329,13 +9534,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9343,7 +9548,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9354,7 +9559,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9366,17 +9571,15 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>448</v>
+        <v>176</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>449</v>
+        <v>177</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9425,33 +9628,2095 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AF67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG67" t="s" s="2">
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI67" t="s" s="2">
+      <c r="G68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X74" s="2"/>
+      <c r="Y74" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN67" t="s" s="2">
+      <c r="O77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>JP</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Japan</t>
+    <t>JP</t>
   </si>
   <si>
     <t>Description</t>

--- a/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/feature/swg1-CodeSystem修正/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="521">
   <si>
     <t>Property</t>
   </si>
@@ -262,10 +262,6 @@
   </si>
   <si>
     <t>Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2251,13 +2247,13 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
         <v>78</v>
@@ -2271,7 +2267,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2282,28 +2278,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>92</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2353,13 +2349,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2385,7 +2381,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2396,25 +2392,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2465,19 +2461,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2497,7 +2493,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2508,28 +2504,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2579,19 +2575,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2611,7 +2607,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2622,7 +2618,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2634,16 +2630,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2669,43 +2665,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2725,18 +2721,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2748,16 +2744,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2807,25 +2803,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -2839,11 +2835,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2862,16 +2858,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2921,7 +2917,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -2939,7 +2935,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -2953,7 +2949,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2976,13 +2972,13 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>134</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3021,17 +3017,17 @@
         <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3043,7 +3039,7 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
@@ -3063,10 +3059,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>78</v>
@@ -3076,7 +3072,7 @@
         <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>78</v>
@@ -3088,13 +3084,13 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3145,7 +3141,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3154,10 +3150,10 @@
         <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
@@ -3177,10 +3173,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>78</v>
@@ -3190,7 +3186,7 @@
         <v>79</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -3202,13 +3198,13 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -3259,7 +3255,7 @@
         <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -3268,10 +3264,10 @@
         <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>78</v>
@@ -3291,10 +3287,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>78</v>
@@ -3304,7 +3300,7 @@
         <v>79</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>78</v>
@@ -3316,13 +3312,13 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3373,7 +3369,7 @@
         <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3382,10 +3378,10 @@
         <v>80</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
@@ -3405,10 +3401,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
@@ -3430,13 +3426,13 @@
         <v>78</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3487,7 +3483,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3496,10 +3492,10 @@
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
@@ -3519,11 +3515,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3536,25 +3532,25 @@
         <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
@@ -3603,7 +3599,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3615,13 +3611,13 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>78</v>
@@ -3635,7 +3631,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3643,7 +3639,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>80</v>
@@ -3658,16 +3654,16 @@
         <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3705,17 +3701,17 @@
         <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -3727,16 +3723,16 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3747,20 +3743,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -3772,16 +3768,16 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3831,7 +3827,7 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -3843,16 +3839,16 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3863,7 +3859,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3874,7 +3870,7 @@
         <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>78</v>
@@ -3886,13 +3882,13 @@
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3943,25 +3939,25 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>78</v>
@@ -3975,11 +3971,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3998,16 +3994,16 @@
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="M18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4045,19 +4041,19 @@
         <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB18" t="s" s="2">
+      <c r="AE18" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -4069,13 +4065,13 @@
         <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>78</v>
@@ -4089,7 +4085,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4100,31 +4096,31 @@
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>78</v>
@@ -4149,55 +4145,55 @@
         <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="X19" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="X19" t="s" s="2">
+      <c r="Y19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE19" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE19" t="s" s="2">
+      <c r="AF19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="AL19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4205,7 +4201,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4216,31 +4212,31 @@
         <v>79</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>78</v>
@@ -4265,55 +4261,55 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4321,7 +4317,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4329,107 +4325,107 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I21" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="R21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S21" t="s" s="2">
+      <c r="T21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="T21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4437,7 +4433,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4445,31 +4441,31 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J22" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4483,67 +4479,67 @@
         <v>78</v>
       </c>
       <c r="S22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="T22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE22" t="s" s="2">
+      <c r="AF22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4551,7 +4547,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4562,25 +4558,25 @@
         <v>79</v>
       </c>
       <c r="F23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I23" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J23" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4631,31 +4627,31 @@
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4663,7 +4659,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4674,28 +4670,28 @@
         <v>79</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4745,31 +4741,31 @@
         <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4777,10 +4773,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>78</v>
@@ -4802,16 +4798,16 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4861,7 +4857,7 @@
         <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -4873,16 +4869,16 @@
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>78</v>
@@ -4893,7 +4889,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4904,7 +4900,7 @@
         <v>79</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>78</v>
@@ -4916,13 +4912,13 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4973,25 +4969,25 @@
         <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>78</v>
@@ -5005,11 +5001,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -5028,16 +5024,16 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L27" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="M27" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5075,19 +5071,19 @@
         <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB27" t="s" s="2">
+      <c r="AE27" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5099,13 +5095,13 @@
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>78</v>
@@ -5119,7 +5115,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5130,31 +5126,31 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H28" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>78</v>
@@ -5179,55 +5175,55 @@
         <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE28" t="s" s="2">
+      <c r="AF28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>196</v>
-      </c>
       <c r="AL28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5235,7 +5231,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5246,31 +5242,31 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J29" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>78</v>
@@ -5295,55 +5291,55 @@
         <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
+      <c r="AF29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5351,7 +5347,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5359,107 +5355,107 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L30" t="s" s="2">
-        <v>246</v>
-      </c>
       <c r="M30" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="S30" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="T30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
+      <c r="AF30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AF30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5467,7 +5463,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5475,31 +5471,31 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5513,67 +5509,67 @@
         <v>78</v>
       </c>
       <c r="S31" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE31" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="T31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE31" t="s" s="2">
+      <c r="AF31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK31" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AF31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5581,7 +5577,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5592,25 +5588,25 @@
         <v>79</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J32" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5661,31 +5657,31 @@
         <v>78</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK32" t="s" s="2">
+      <c r="AL32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5693,7 +5689,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5704,28 +5700,28 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5775,31 +5771,31 @@
         <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>239</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5807,7 +5803,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5827,16 +5823,16 @@
         <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5887,7 +5883,7 @@
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5899,13 +5895,13 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>78</v>
@@ -5919,7 +5915,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5939,16 +5935,16 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5999,7 +5995,7 @@
         <v>78</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6011,13 +6007,13 @@
         <v>78</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>78</v>
@@ -6031,7 +6027,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6039,31 +6035,31 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="I36" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J36" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6089,55 +6085,55 @@
         <v>78</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Z36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
+      <c r="AK36" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6145,7 +6141,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6168,16 +6164,16 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6203,14 +6199,14 @@
         <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="X37" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="X37" t="s" s="2">
+      <c r="Y37" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="Z37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6227,7 +6223,7 @@
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6239,19 +6235,19 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6259,7 +6255,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6270,7 +6266,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6282,13 +6278,13 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6315,49 +6311,49 @@
         <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>78</v>
@@ -6371,7 +6367,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6379,31 +6375,31 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6429,55 +6425,55 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
+      <c r="AK39" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6485,7 +6481,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6493,31 +6489,31 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I40" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J40" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6567,31 +6563,31 @@
         <v>78</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK40" t="s" s="2">
+      <c r="AL40" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6599,7 +6595,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6610,7 +6606,7 @@
         <v>79</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -6622,16 +6618,16 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="M41" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6681,31 +6677,31 @@
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6713,7 +6709,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6736,16 +6732,16 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L42" t="s" s="2">
-        <v>319</v>
-      </c>
       <c r="M42" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6795,7 +6791,7 @@
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6807,16 +6803,16 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
@@ -6827,7 +6823,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6835,31 +6831,31 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F43" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J43" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6909,31 +6905,31 @@
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6941,7 +6937,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6961,16 +6957,16 @@
         <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -7021,7 +7017,7 @@
         <v>78</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7033,19 +7029,19 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7053,7 +7049,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7064,7 +7060,7 @@
         <v>79</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -7076,13 +7072,13 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7133,25 +7129,25 @@
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>78</v>
@@ -7165,11 +7161,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -7188,16 +7184,16 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L46" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="M46" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7247,7 +7243,7 @@
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7259,13 +7255,13 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>78</v>
@@ -7279,11 +7275,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7296,25 +7292,25 @@
         <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="M47" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N47" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>78</v>
@@ -7363,7 +7359,7 @@
         <v>78</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7375,13 +7371,13 @@
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>78</v>
@@ -7395,7 +7391,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7406,7 +7402,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7418,13 +7414,13 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>346</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>347</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -7451,49 +7447,49 @@
         <v>78</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="Y48" t="s" s="2">
+      <c r="Z48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
+      <c r="AK48" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>78</v>
@@ -7507,7 +7503,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7515,28 +7511,28 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F49" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J49" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7587,25 +7583,25 @@
         <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>78</v>
@@ -7619,7 +7615,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7642,13 +7638,13 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7675,14 +7671,14 @@
         <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>362</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>78</v>
       </c>
@@ -7699,7 +7695,7 @@
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7711,19 +7707,19 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -7731,7 +7727,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7754,16 +7750,16 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7813,7 +7809,7 @@
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7825,27 +7821,27 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AK51" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AK51" t="s" s="2">
+      <c r="AL51" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>374</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7856,7 +7852,7 @@
         <v>79</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>78</v>
@@ -7868,19 +7864,19 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>78</v>
@@ -7929,31 +7925,31 @@
         <v>78</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>78</v>
@@ -7961,7 +7957,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7984,16 +7980,16 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L53" t="s" s="2">
-        <v>387</v>
-      </c>
       <c r="M53" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8043,7 +8039,7 @@
         <v>78</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8055,19 +8051,19 @@
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>78</v>
@@ -8075,7 +8071,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8098,16 +8094,16 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="K54" t="s" s="2">
+      <c r="L54" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8157,7 +8153,7 @@
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8169,13 +8165,13 @@
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AK54" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>78</v>
@@ -8189,7 +8185,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8200,7 +8196,7 @@
         <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8212,13 +8208,13 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -8269,25 +8265,25 @@
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>78</v>
@@ -8301,7 +8297,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8312,7 +8308,7 @@
         <v>79</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>78</v>
@@ -8324,13 +8320,13 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K56" t="s" s="2">
+      <c r="L56" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8381,25 +8377,25 @@
         <v>78</v>
       </c>
       <c r="AE56" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK56" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>78</v>
@@ -8413,11 +8409,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8436,16 +8432,16 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="M57" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8495,7 +8491,7 @@
         <v>78</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -8507,13 +8503,13 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
@@ -8527,11 +8523,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8544,25 +8540,25 @@
         <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L58" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="M58" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>78</v>
@@ -8611,7 +8607,7 @@
         <v>78</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -8623,13 +8619,13 @@
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>78</v>
@@ -8643,7 +8639,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8654,7 +8650,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -8666,13 +8662,13 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8723,25 +8719,25 @@
         <v>78</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>78</v>
@@ -8755,7 +8751,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8766,7 +8762,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>78</v>
@@ -8778,16 +8774,16 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8813,53 +8809,53 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -8867,7 +8863,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8878,7 +8874,7 @@
         <v>79</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -8890,16 +8886,16 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>418</v>
-      </c>
       <c r="M61" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8925,53 +8921,53 @@
         <v>78</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -8979,7 +8975,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8990,7 +8986,7 @@
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -9002,19 +8998,19 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>78</v>
@@ -9039,55 +9035,55 @@
         <v>78</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="Y62" t="s" s="2">
+      <c r="Z62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK62" t="s" s="2">
+      <c r="AL62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9095,7 +9091,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9106,7 +9102,7 @@
         <v>79</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>78</v>
@@ -9118,13 +9114,13 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -9175,25 +9171,25 @@
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK63" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>78</v>
@@ -9207,11 +9203,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9230,16 +9226,16 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L64" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="M64" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9277,19 +9273,19 @@
         <v>78</v>
       </c>
       <c r="AA64" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD64" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB64" t="s" s="2">
+      <c r="AE64" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9301,13 +9297,13 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
@@ -9321,7 +9317,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9341,22 +9337,22 @@
         <v>78</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>437</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>78</v>
@@ -9393,17 +9389,17 @@
         <v>78</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AB65" s="2"/>
       <c r="AC65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -9415,19 +9411,19 @@
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9435,10 +9431,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>78</v>
@@ -9448,31 +9444,31 @@
         <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I66" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J66" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>78</v>
@@ -9497,11 +9493,11 @@
         <v>78</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>78</v>
@@ -9519,7 +9515,7 @@
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -9531,19 +9527,19 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9551,7 +9547,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9562,7 +9558,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>78</v>
@@ -9574,13 +9570,13 @@
         <v>78</v>
       </c>
       <c r="J67" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K67" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K67" t="s" s="2">
+      <c r="L67" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9631,25 +9627,25 @@
         <v>78</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK67" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>78</v>
@@ -9663,11 +9659,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9686,16 +9682,16 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9733,19 +9729,19 @@
         <v>78</v>
       </c>
       <c r="AA68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD68" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB68" t="s" s="2">
+      <c r="AE68" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -9757,13 +9753,13 @@
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>78</v>
@@ -9777,7 +9773,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9785,107 +9781,107 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P69" s="2"/>
       <c r="Q69" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE69" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="R69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE69" t="s" s="2">
+      <c r="AF69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK69" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AF69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK69" t="s" s="2">
+      <c r="AL69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM69" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
@@ -9893,7 +9889,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9904,28 +9900,28 @@
         <v>79</v>
       </c>
       <c r="F70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J70" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9975,31 +9971,31 @@
         <v>78</v>
       </c>
       <c r="AE70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK70" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AF70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK70" t="s" s="2">
+      <c r="AL70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
@@ -10007,7 +10003,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10018,29 +10014,29 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J71" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>78</v>
@@ -10089,31 +10085,31 @@
         <v>78</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AF71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK71" t="s" s="2">
+      <c r="AL71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM71" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10121,7 +10117,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10132,29 +10128,29 @@
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J72" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>78</v>
@@ -10203,31 +10199,31 @@
         <v>78</v>
       </c>
       <c r="AE72" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK72" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AF72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK72" t="s" s="2">
+      <c r="AL72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
@@ -10235,7 +10231,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10246,31 +10242,31 @@
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J73" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="K73" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="K73" t="s" s="2">
+      <c r="L73" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="O73" t="s" s="2">
         <v>78</v>
@@ -10319,31 +10315,31 @@
         <v>78</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AF73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK73" t="s" s="2">
+      <c r="AL73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>78</v>
@@ -10351,10 +10347,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>78</v>
@@ -10364,31 +10360,31 @@
         <v>79</v>
       </c>
       <c r="F74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I74" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J74" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="M74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>78</v>
@@ -10413,11 +10409,11 @@
         <v>78</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X74" s="2"/>
       <c r="Y74" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>78</v>
@@ -10435,7 +10431,7 @@
         <v>78</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -10447,19 +10443,19 @@
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10467,7 +10463,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10478,7 +10474,7 @@
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10490,13 +10486,13 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -10547,25 +10543,25 @@
         <v>78</v>
       </c>
       <c r="AE75" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>78</v>
@@ -10579,11 +10575,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10602,16 +10598,16 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L76" t="s" s="2">
-        <v>184</v>
-      </c>
       <c r="M76" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -10649,19 +10645,19 @@
         <v>78</v>
       </c>
       <c r="AA76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD76" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="AB76" t="s" s="2">
+      <c r="AE76" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>79</v>
@@ -10673,13 +10669,13 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>78</v>
@@ -10693,7 +10689,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10701,41 +10697,41 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I77" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="F77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J77" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L77" t="s" s="2">
+      <c r="M77" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="R77" t="s" s="2">
         <v>78</v>
@@ -10777,31 +10773,31 @@
         <v>78</v>
       </c>
       <c r="AE77" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK77" t="s" s="2">
         <v>455</v>
       </c>
-      <c r="AF77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK77" t="s" s="2">
+      <c r="AL77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>78</v>
@@ -10809,7 +10805,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10820,28 +10816,28 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I78" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J78" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>461</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -10891,31 +10887,31 @@
         <v>78</v>
       </c>
       <c r="AE78" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="AF78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK78" t="s" s="2">
+      <c r="AL78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -10923,7 +10919,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10934,29 +10930,29 @@
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I79" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J79" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>466</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>78</v>
@@ -11005,31 +11001,31 @@
         <v>78</v>
       </c>
       <c r="AE79" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="AF79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK79" t="s" s="2">
+      <c r="AL79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM79" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11037,7 +11033,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11048,29 +11044,29 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I80" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J80" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>78</v>
@@ -11119,31 +11115,31 @@
         <v>78</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="AF80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK80" t="s" s="2">
+      <c r="AL80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>478</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11151,7 +11147,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11162,31 +11158,31 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I81" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J81" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="K81" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="K81" t="s" s="2">
+      <c r="L81" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>78</v>
@@ -11235,31 +11231,31 @@
         <v>78</v>
       </c>
       <c r="AE81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="AF81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK81" t="s" s="2">
+      <c r="AL81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>486</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>78</v>
@@ -11267,7 +11263,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11278,31 +11274,31 @@
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="G82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="J82" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>78</v>
@@ -11351,31 +11347,31 @@
         <v>78</v>
       </c>
       <c r="AE82" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK82" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AF82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK82" t="s" s="2">
+      <c r="AL82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>78</v>
@@ -11383,7 +11379,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11394,7 +11390,7 @@
         <v>79</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>78</v>
@@ -11406,16 +11402,16 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="K83" t="s" s="2">
+      <c r="L83" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11465,31 +11461,31 @@
         <v>78</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AI83" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK83" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AJ83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK83" t="s" s="2">
+      <c r="AL83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>78</v>
@@ -11497,7 +11493,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11508,7 +11504,7 @@
         <v>79</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>78</v>
@@ -11520,16 +11516,16 @@
         <v>78</v>
       </c>
       <c r="J84" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="K84" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="K84" t="s" s="2">
+      <c r="L84" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>513</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
@@ -11579,31 +11575,31 @@
         <v>78</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK84" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM84" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>78</v>
@@ -11611,7 +11607,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11634,16 +11630,16 @@
         <v>78</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -11693,7 +11689,7 @@
         <v>78</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>79</v>
@@ -11705,13 +11701,13 @@
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>78</v>
